--- a/Final Project/Kaimana_tidy.xlsx
+++ b/Final Project/Kaimana_tidy.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/honours_one/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/honours_one/Desktop/GitHub/MBIO/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA8BE5C-6A11-2146-AE56-55C98B5FE1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE94812-101D-3A48-AB58-F7A075A7B3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="500" windowWidth="15280" windowHeight="16280" xr2:uid="{3D7760A0-C20E-FD49-B060-FD9C6D3F73D3}"/>
+    <workbookView xWindow="11460" yWindow="500" windowWidth="17240" windowHeight="16280" xr2:uid="{3D7760A0-C20E-FD49-B060-FD9C6D3F73D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="15">
   <si>
     <t>Moon</t>
   </si>
@@ -66,9 +66,6 @@
     <t>ʻOlekūkolu</t>
   </si>
   <si>
-    <t>Pple_msq</t>
-  </si>
-  <si>
     <t>Tide</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>PostTide</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -449,8 +452,8 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,16 +484,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -510,7 +513,12 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="1">
         <v>0.27113399999999999</v>
       </c>
@@ -538,7 +546,12 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I3">
         <f>I2</f>
         <v>0.27113399999999999</v>
@@ -567,7 +580,12 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I4">
         <f>I3</f>
         <v>0.27113399999999999</v>
@@ -596,7 +614,12 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="1">
         <v>0.505498</v>
       </c>
@@ -624,7 +647,12 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I6">
         <f>I5</f>
         <v>0.505498</v>
@@ -653,7 +681,12 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I7">
         <f>I6</f>
         <v>0.505498</v>
@@ -686,8 +719,7 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <f>G8/8059.53</f>
-        <v>1.1166904273574266E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I8" s="1">
         <v>-0.129827</v>
@@ -720,8 +752,7 @@
         <v>9</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H28" si="0">G9/8059.53</f>
-        <v>1.1166904273574266E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I9">
         <f>I8</f>
@@ -755,8 +786,7 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1.1166904273574266E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I10">
         <f>I9</f>
@@ -786,8 +816,7 @@
         <v>11</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>1.3648438556590769E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I11">
         <v>-0.134548</v>
@@ -816,8 +845,7 @@
         <v>34</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>4.2186082811280562E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I12">
         <v>2.4101999999999998E-2</v>
@@ -846,8 +874,7 @@
         <v>62</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>7.6927562773511605E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I13">
         <v>0.34701700000000002</v>
@@ -880,8 +907,7 @@
         <v>43</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>5.3352987084854826E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I14" s="1">
         <v>0.79531300000000005</v>
@@ -914,8 +940,7 @@
         <v>43</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>5.3352987084854826E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I15">
         <f>I14</f>
@@ -949,8 +974,7 @@
         <v>43</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>5.3352987084854826E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I16">
         <f>I15</f>
@@ -980,8 +1004,7 @@
         <v>46</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>5.707528850937958E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I17">
         <v>1.297388</v>
@@ -1010,8 +1033,7 @@
         <v>41</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>5.0871452801838322E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I18">
         <v>1.764392</v>
@@ -1040,8 +1062,7 @@
         <v>52</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>6.451989135842909E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I19">
         <v>2.1103360000000002</v>
@@ -1074,8 +1095,7 @@
         <v>79</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>9.8020604179151882E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I20" s="1">
         <v>2.2718829999999999</v>
@@ -1108,8 +1128,7 @@
         <v>79</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>9.8020604179151882E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I21">
         <f>I20</f>
@@ -1143,8 +1162,7 @@
         <v>79</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
-        <v>9.8020604179151882E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I22">
         <f>I21</f>
@@ -1174,8 +1192,7 @@
         <v>54</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
-        <v>6.7001425641445593E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I23">
         <v>2.2228859999999999</v>
@@ -1204,8 +1221,7 @@
         <v>36</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
-        <v>4.4667617094297065E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I24">
         <v>1.9800850000000001</v>
@@ -1234,8 +1250,7 @@
         <v>33</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>4.094531566977231E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I25">
         <v>1.5985529999999999</v>
@@ -1268,8 +1283,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8059.53</v>
       </c>
       <c r="I26" s="1">
         <v>1.158083</v>
@@ -1302,8 +1316,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8059.53</v>
       </c>
       <c r="I27">
         <f>I26</f>
@@ -1337,8 +1350,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8059.53</v>
       </c>
       <c r="I28">
         <f>I27</f>
@@ -1368,7 +1380,12 @@
       <c r="F29" s="2">
         <v>9.6548361875869588</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I29" s="1">
         <v>0.208146</v>
       </c>
@@ -1396,7 +1413,12 @@
       <c r="F30" s="2">
         <v>10.783897279494122</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I30">
         <f>I29</f>
         <v>0.208146</v>
@@ -1425,7 +1447,12 @@
       <c r="F31" s="2">
         <v>11.175159303868366</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I31">
         <f>I30</f>
         <v>0.208146</v>
@@ -1454,7 +1481,12 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I32" s="1">
         <v>0.97225899999999998</v>
       </c>
@@ -1482,7 +1514,12 @@
       <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I33">
         <f>I32</f>
         <v>0.97225899999999998</v>
@@ -1511,7 +1548,12 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I34">
         <f>I33</f>
         <v>0.97225899999999998</v>
@@ -1540,7 +1582,12 @@
       <c r="F35" s="1">
         <v>12.944405433410708</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I35" s="1">
         <v>-1.9827999999999998E-2</v>
       </c>
@@ -1568,7 +1615,12 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I36">
         <f>I35</f>
         <v>-1.9827999999999998E-2</v>
@@ -1597,7 +1649,12 @@
       <c r="F37" s="1">
         <v>4.2703360646127271</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I37">
         <f>I36</f>
         <v>-1.9827999999999998E-2</v>
@@ -1630,8 +1687,7 @@
         <v>10</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H58" si="1">G38/8059.53</f>
-        <v>1.2407671415082518E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I38" s="1">
         <v>0.73186499999999999</v>
@@ -1664,8 +1720,7 @@
         <v>10</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
-        <v>1.2407671415082518E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I39">
         <f>I38</f>
@@ -1699,8 +1754,7 @@
         <v>10</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
-        <v>1.2407671415082518E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I40">
         <f>I39</f>
@@ -1730,8 +1784,7 @@
         <v>32</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
-        <v>3.9704548528264058E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I41">
         <v>1.0573269999999999</v>
@@ -1760,8 +1813,7 @@
         <v>49</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
-        <v>6.0797589933904335E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I42">
         <v>1.3207450000000001</v>
@@ -1790,8 +1842,7 @@
         <v>57</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
-        <v>7.0723727065970347E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I43">
         <v>1.478121</v>
@@ -1824,8 +1875,7 @@
         <v>54</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
-        <v>6.7001425641445593E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I44" s="1">
         <v>1.511282</v>
@@ -1858,8 +1908,7 @@
         <v>54</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
-        <v>6.7001425641445593E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I45">
         <f>I44</f>
@@ -1893,8 +1942,7 @@
         <v>54</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
-        <v>6.7001425641445593E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I46">
         <f>I45</f>
@@ -1924,8 +1972,7 @@
         <v>43</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
-        <v>5.3352987084854826E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I47">
         <v>1.4309320000000001</v>
@@ -1954,8 +2001,7 @@
         <v>59</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
-        <v>7.320526134898685E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I48">
         <v>1.272702</v>
@@ -1984,8 +2030,7 @@
         <v>62</v>
       </c>
       <c r="H49">
-        <f t="shared" si="1"/>
-        <v>7.6927562773511605E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I49">
         <v>1.087256</v>
@@ -2018,8 +2063,7 @@
         <v>74</v>
       </c>
       <c r="H50">
-        <f t="shared" si="1"/>
-        <v>9.1816768471610632E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I50" s="1">
         <v>0.92691400000000002</v>
@@ -2052,8 +2096,7 @@
         <v>74</v>
       </c>
       <c r="H51">
-        <f t="shared" si="1"/>
-        <v>9.1816768471610632E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I51">
         <f>I50</f>
@@ -2087,8 +2130,7 @@
         <v>74</v>
       </c>
       <c r="H52">
-        <f t="shared" si="1"/>
-        <v>9.1816768471610632E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I52">
         <f>I51</f>
@@ -2118,8 +2160,7 @@
         <v>77</v>
       </c>
       <c r="H53">
-        <f t="shared" si="1"/>
-        <v>9.5539069896135378E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I53">
         <v>0.83216199999999996</v>
@@ -2148,8 +2189,7 @@
         <v>72</v>
       </c>
       <c r="H54">
-        <f t="shared" si="1"/>
-        <v>8.9335234188594129E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I54">
         <v>0.82140500000000005</v>
@@ -2178,8 +2218,7 @@
         <v>29</v>
       </c>
       <c r="H55">
-        <f t="shared" si="1"/>
-        <v>3.5982247103739299E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I55">
         <v>0.886544</v>
@@ -2212,8 +2251,7 @@
         <v>3</v>
       </c>
       <c r="H56">
-        <f t="shared" si="1"/>
-        <v>3.7223014245247552E-4</v>
+        <v>8059.53</v>
       </c>
       <c r="I56" s="1">
         <v>0.99548800000000004</v>
@@ -2246,8 +2284,7 @@
         <v>3</v>
       </c>
       <c r="H57">
-        <f t="shared" si="1"/>
-        <v>3.7223014245247552E-4</v>
+        <v>8059.53</v>
       </c>
       <c r="I57">
         <f>I56</f>
@@ -2281,8 +2318,7 @@
         <v>3</v>
       </c>
       <c r="H58">
-        <f t="shared" si="1"/>
-        <v>3.7223014245247552E-4</v>
+        <v>8059.53</v>
       </c>
       <c r="I58">
         <f>I57</f>
@@ -2312,6 +2348,12 @@
       <c r="F59" s="1">
         <v>140.75640809416149</v>
       </c>
+      <c r="G59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I59" s="1">
         <v>0.97287599999999996</v>
       </c>
@@ -2339,6 +2381,12 @@
       <c r="F60" s="1">
         <v>44.406902886046097</v>
       </c>
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I60">
         <f>I59</f>
         <v>0.97287599999999996</v>
@@ -2367,6 +2415,12 @@
       <c r="F61" s="1">
         <v>65.562425991814408</v>
       </c>
+      <c r="G61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I61">
         <f>I60</f>
         <v>0.97287599999999996</v>
@@ -2395,6 +2449,12 @@
       <c r="F62" s="2">
         <v>84.722731735916426</v>
       </c>
+      <c r="G62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I62" s="1">
         <v>0.127613</v>
       </c>
@@ -2422,7 +2482,12 @@
       <c r="F63" s="2">
         <v>70.95826958464913</v>
       </c>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I63">
         <f>I62</f>
         <v>0.127613</v>
@@ -2451,7 +2516,12 @@
       <c r="F64" s="2">
         <v>68.290792896461198</v>
       </c>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I64">
         <f>I63</f>
         <v>0.127613</v>
@@ -2480,7 +2550,12 @@
       <c r="F65" s="2">
         <v>81.540811154031985</v>
       </c>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I65" s="1">
         <v>0.546512</v>
       </c>
@@ -2508,7 +2583,12 @@
       <c r="F66" s="2">
         <v>106.38723616987569</v>
       </c>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I66">
         <f>I65</f>
         <v>0.546512</v>
@@ -2537,7 +2617,12 @@
       <c r="F67" s="2">
         <v>83.391805167439344</v>
       </c>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I67">
         <f>I66</f>
         <v>0.546512</v>
@@ -2570,8 +2655,7 @@
         <v>19</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H88" si="2">G68/8059.53</f>
-        <v>2.3574575688656784E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I68" s="1">
         <v>-0.34932400000000002</v>
@@ -2604,8 +2688,7 @@
         <v>19</v>
       </c>
       <c r="H69">
-        <f t="shared" si="2"/>
-        <v>2.3574575688656784E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I69">
         <f>I68</f>
@@ -2639,8 +2722,7 @@
         <v>19</v>
       </c>
       <c r="H70">
-        <f t="shared" si="2"/>
-        <v>2.3574575688656784E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I70">
         <f>I69</f>
@@ -2670,8 +2752,7 @@
         <v>32</v>
       </c>
       <c r="H71">
-        <f t="shared" si="2"/>
-        <v>3.9704548528264058E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I71">
         <v>-0.40806500000000001</v>
@@ -2700,8 +2781,7 @@
         <v>55</v>
       </c>
       <c r="H72">
-        <f t="shared" si="2"/>
-        <v>6.8242192782953844E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I72">
         <v>-0.25496400000000002</v>
@@ -2730,8 +2810,7 @@
         <v>76</v>
       </c>
       <c r="H73">
-        <f t="shared" si="2"/>
-        <v>9.4298302754627136E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I73">
         <v>0.12098200000000001</v>
@@ -2764,8 +2843,7 @@
         <v>56</v>
       </c>
       <c r="H74">
-        <f t="shared" si="2"/>
-        <v>6.9482959924462096E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I74" s="1">
         <v>0.67773000000000005</v>
@@ -2798,8 +2876,7 @@
         <v>56</v>
       </c>
       <c r="H75">
-        <f t="shared" si="2"/>
-        <v>6.9482959924462096E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I75">
         <f>I74</f>
@@ -2833,8 +2910,7 @@
         <v>56</v>
       </c>
       <c r="H76">
-        <f t="shared" si="2"/>
-        <v>6.9482959924462096E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I76">
         <f>I75</f>
@@ -2864,8 +2940,7 @@
         <v>31</v>
       </c>
       <c r="H77">
-        <f t="shared" si="2"/>
-        <v>3.8463781386755803E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I77">
         <v>1.32731</v>
@@ -2895,8 +2970,7 @@
         <v>55</v>
       </c>
       <c r="H78">
-        <f t="shared" si="2"/>
-        <v>6.8242192782953844E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I78">
         <v>1.9545429999999999</v>
@@ -2917,7 +2991,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="5">
-        <f t="shared" ref="D79" si="3">D78+1</f>
+        <f t="shared" ref="D79" si="0">D78+1</f>
         <v>15</v>
       </c>
       <c r="E79" s="1"/>
@@ -2926,8 +3000,7 @@
         <v>57</v>
       </c>
       <c r="H79">
-        <f t="shared" si="2"/>
-        <v>7.0723727065970347E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I79">
         <v>2.4428830000000001</v>
@@ -2960,8 +3033,7 @@
         <v>77</v>
       </c>
       <c r="H80">
-        <f t="shared" si="2"/>
-        <v>9.5539069896135378E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I80" s="1">
         <v>2.7010900000000002</v>
@@ -2994,8 +3066,7 @@
         <v>77</v>
       </c>
       <c r="H81">
-        <f t="shared" si="2"/>
-        <v>9.5539069896135378E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I81">
         <f>I80</f>
@@ -3029,8 +3100,7 @@
         <v>77</v>
       </c>
       <c r="H82">
-        <f t="shared" si="2"/>
-        <v>9.5539069896135378E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I82">
         <f>I81</f>
@@ -3052,7 +3122,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="5">
-        <f t="shared" ref="D83:D85" si="4">D82+1</f>
+        <f t="shared" ref="D83:D85" si="1">D82+1</f>
         <v>17</v>
       </c>
       <c r="E83" s="1"/>
@@ -3061,8 +3131,7 @@
         <v>72</v>
       </c>
       <c r="H83">
-        <f t="shared" si="2"/>
-        <v>8.9335234188594129E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I83">
         <v>2.6841849999999998</v>
@@ -3083,7 +3152,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E84" s="1"/>
@@ -3092,8 +3161,7 @@
         <v>50</v>
       </c>
       <c r="H84">
-        <f t="shared" si="2"/>
-        <v>6.2038357075412586E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I84">
         <v>2.4035350000000002</v>
@@ -3114,7 +3182,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="E85" s="1"/>
@@ -3123,8 +3191,7 @@
         <v>27</v>
       </c>
       <c r="H85">
-        <f t="shared" si="2"/>
-        <v>3.3500712820722796E-3</v>
+        <v>8059.53</v>
       </c>
       <c r="I85">
         <v>1.9236009999999999</v>
@@ -3157,8 +3224,7 @@
         <v>4</v>
       </c>
       <c r="H86">
-        <f t="shared" si="2"/>
-        <v>4.9630685660330073E-4</v>
+        <v>8059.53</v>
       </c>
       <c r="I86" s="1">
         <v>1.3461890000000001</v>
@@ -3191,8 +3257,7 @@
         <v>4</v>
       </c>
       <c r="H87">
-        <f t="shared" si="2"/>
-        <v>4.9630685660330073E-4</v>
+        <v>8059.53</v>
       </c>
       <c r="I87">
         <f>I86</f>
@@ -3226,8 +3291,7 @@
         <v>4</v>
       </c>
       <c r="H88">
-        <f t="shared" si="2"/>
-        <v>4.9630685660330073E-4</v>
+        <v>8059.53</v>
       </c>
       <c r="I88">
         <f>I87</f>
@@ -3257,7 +3321,12 @@
       <c r="F89" s="2">
         <v>68.024126468182402</v>
       </c>
-      <c r="G89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I89" s="1">
         <v>2.3125E-2</v>
       </c>
@@ -3285,7 +3354,12 @@
       <c r="F90" s="2">
         <v>70.382030364326397</v>
       </c>
-      <c r="G90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I90">
         <f>I89</f>
         <v>2.3125E-2</v>
@@ -3314,7 +3388,12 @@
       <c r="F91" s="2">
         <v>68.403304443779604</v>
       </c>
-      <c r="G91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I91">
         <f>I90</f>
         <v>2.3125E-2</v>
